--- a/burndownchart(3).xlsx
+++ b/burndownchart(3).xlsx
@@ -123,7 +123,7 @@
     <t xml:space="preserve">fix corner bug</t>
   </si>
   <si>
-    <t xml:space="preserve">Feature 11</t>
+    <t xml:space="preserve">Pause button</t>
   </si>
   <si>
     <t xml:space="preserve">Feature 12</t>
@@ -1050,7 +1050,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr b="1" sz="1600" spc="117" strike="noStrike">
+              <a:defRPr b="1" sz="1600" spc="114" strike="noStrike">
                 <a:solidFill>
                   <a:srgbClr val="595959"/>
                 </a:solidFill>
@@ -1058,7 +1058,7 @@
               </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:rPr b="1" sz="1600" spc="117" strike="noStrike">
+              <a:rPr b="1" sz="1600" spc="114" strike="noStrike">
                 <a:solidFill>
                   <a:srgbClr val="595959"/>
                 </a:solidFill>
@@ -1223,7 +1223,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="21"/>
                 <c:pt idx="0">
-                  <c:v>26</c:v>
+                  <c:v>28</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1372,46 +1372,46 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="21"/>
                 <c:pt idx="0">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="1">
                   <c:v>26</c:v>
                 </c:pt>
-                <c:pt idx="1">
-                  <c:v>24.1428571428571</c:v>
-                </c:pt>
                 <c:pt idx="2">
-                  <c:v>22.2857142857143</c:v>
+                  <c:v>24</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>20.4285714285714</c:v>
+                  <c:v>22</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>18.5714285714286</c:v>
+                  <c:v>20</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>16.7142857142857</c:v>
+                  <c:v>18</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>14.8571428571429</c:v>
+                  <c:v>16</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>13</c:v>
+                  <c:v>14</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>11.1428571428571</c:v>
+                  <c:v>12</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>9.28571428571428</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>7.42857142857142</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>5.57142857142857</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>3.71428571428571</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>1.85714285714285</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="14">
                   <c:v>0</c:v>
@@ -1429,11 +1429,11 @@
           </c:spPr>
         </c:hiLowLines>
         <c:marker val="1"/>
-        <c:axId val="51808256"/>
-        <c:axId val="86203248"/>
+        <c:axId val="82087566"/>
+        <c:axId val="65050125"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="51808256"/>
+        <c:axId val="82087566"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1466,7 +1466,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr b="0" sz="800" spc="117" strike="noStrike">
+              <a:defRPr b="0" sz="800" spc="114" strike="noStrike">
                 <a:solidFill>
                   <a:srgbClr val="595959"/>
                 </a:solidFill>
@@ -1475,7 +1475,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="86203248"/>
+        <c:crossAx val="65050125"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1483,7 +1483,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="86203248"/>
+        <c:axId val="65050125"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1515,7 +1515,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="51808256"/>
+        <c:crossAx val="82087566"/>
         <c:crossesAt val="0"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1579,7 +1579,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr b="1" sz="1600" spc="97" strike="noStrike">
+              <a:defRPr b="1" sz="1600" spc="94" strike="noStrike">
                 <a:solidFill>
                   <a:srgbClr val="f2f2f2"/>
                 </a:solidFill>
@@ -1587,7 +1587,7 @@
               </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:rPr b="1" sz="1600" spc="97" strike="noStrike">
+              <a:rPr b="1" sz="1600" spc="94" strike="noStrike">
                 <a:solidFill>
                   <a:srgbClr val="f2f2f2"/>
                 </a:solidFill>
@@ -1763,7 +1763,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="21"/>
                 <c:pt idx="0">
-                  <c:v>26</c:v>
+                  <c:v>28</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1911,46 +1911,46 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="21"/>
                 <c:pt idx="0">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="1">
                   <c:v>26</c:v>
                 </c:pt>
-                <c:pt idx="1">
-                  <c:v>24.1428571428571</c:v>
-                </c:pt>
                 <c:pt idx="2">
-                  <c:v>22.2857142857143</c:v>
+                  <c:v>24</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>20.4285714285714</c:v>
+                  <c:v>22</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>18.5714285714286</c:v>
+                  <c:v>20</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>16.7142857142857</c:v>
+                  <c:v>18</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>14.8571428571429</c:v>
+                  <c:v>16</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>13</c:v>
+                  <c:v>14</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>11.1428571428571</c:v>
+                  <c:v>12</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>9.28571428571428</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>7.42857142857142</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>5.57142857142857</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>3.71428571428571</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>1.85714285714285</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="14">
                   <c:v>0</c:v>
@@ -1968,11 +1968,11 @@
           </c:spPr>
         </c:hiLowLines>
         <c:marker val="0"/>
-        <c:axId val="98758084"/>
-        <c:axId val="74815990"/>
+        <c:axId val="44510608"/>
+        <c:axId val="35793854"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="98758084"/>
+        <c:axId val="44510608"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2040,7 +2040,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="74815990"/>
+        <c:crossAx val="35793854"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2048,7 +2048,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="74815990"/>
+        <c:axId val="35793854"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2123,7 +2123,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="98758084"/>
+        <c:crossAx val="44510608"/>
         <c:crossesAt val="0"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2193,9 +2193,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>23</xdr:col>
-      <xdr:colOff>1047600</xdr:colOff>
+      <xdr:colOff>1047240</xdr:colOff>
       <xdr:row>4</xdr:row>
-      <xdr:rowOff>1104480</xdr:rowOff>
+      <xdr:rowOff>1104120</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -2203,8 +2203,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="10424880" y="66600"/>
-        <a:ext cx="9226440" cy="2047680"/>
+        <a:off x="10421280" y="66600"/>
+        <a:ext cx="9216720" cy="2047320"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -2228,9 +2228,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>23</xdr:col>
-      <xdr:colOff>228240</xdr:colOff>
+      <xdr:colOff>227880</xdr:colOff>
       <xdr:row>34</xdr:row>
-      <xdr:rowOff>47160</xdr:rowOff>
+      <xdr:rowOff>46800</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -2239,7 +2239,7 @@
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="237960" y="218880"/>
-        <a:ext cx="17443080" cy="6305400"/>
+        <a:ext cx="17457480" cy="6305040"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -2260,18 +2260,18 @@
   <dimension ref="A1:X40"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="2" ySplit="7" topLeftCell="C8" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="7" topLeftCell="C14" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="C1" activeCellId="0" sqref="C1"/>
-      <selection pane="bottomLeft" activeCell="A8" activeCellId="0" sqref="A8"/>
-      <selection pane="bottomRight" activeCell="F10" activeCellId="0" sqref="F10"/>
+      <selection pane="bottomLeft" activeCell="A14" activeCellId="0" sqref="A14"/>
+      <selection pane="bottomRight" activeCell="F17" activeCellId="0" sqref="F17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.5390625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="70.71"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="70.7"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="15.71"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="22" min="3" style="0" width="5.71"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="22" min="3" style="0" width="5.7"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="24" min="24" style="0" width="18.14"/>
   </cols>
   <sheetData>
@@ -2342,7 +2342,7 @@
       <c r="F3" s="5"/>
       <c r="G3" s="6" t="n">
         <f aca="false">B38</f>
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="H3" s="7"/>
       <c r="I3" s="7"/>
@@ -2890,7 +2890,9 @@
       <c r="A18" s="22" t="s">
         <v>21</v>
       </c>
-      <c r="B18" s="23"/>
+      <c r="B18" s="23" t="n">
+        <v>2</v>
+      </c>
       <c r="C18" s="24"/>
       <c r="D18" s="25"/>
       <c r="E18" s="24"/>
@@ -2913,11 +2915,11 @@
       <c r="V18" s="25"/>
       <c r="W18" s="26" t="n">
         <f aca="false">B18-SUM(C18:V18)</f>
+        <v>2</v>
+      </c>
+      <c r="X18" s="21" t="n">
+        <f aca="false">IFERROR(1-(W18/B18),"")</f>
         <v>0</v>
-      </c>
-      <c r="X18" s="21" t="str">
-        <f aca="false">IFERROR(1-(W18/B18),"")</f>
-        <v/>
       </c>
     </row>
     <row r="19" customFormat="false" ht="30" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -3572,7 +3574,7 @@
       </c>
       <c r="B38" s="34" t="n">
         <f aca="false">SUM(B8:B37)</f>
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="C38" s="35" t="e">
         <f aca="false">IFERROR(IF(B38-SUM(C8:C37)=B38,NA(),B38-SUM(C8:C37)),NA())</f>
@@ -3656,7 +3658,7 @@
       </c>
       <c r="W38" s="36" t="n">
         <f aca="false">SUM(W8:W37)</f>
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="X38" s="37" t="n">
         <f aca="false">IFERROR(1-(W38/B38),"")</f>
@@ -3669,59 +3671,59 @@
       </c>
       <c r="B39" s="39" t="n">
         <f aca="false">SUM(B8:B37)</f>
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="C39" s="40" t="n">
         <f aca="false">IFERROR((IF(B39-($B$38/$G$4) &lt; 0,"-", B39-($B$38/$G$4))),IFERROR(B39-($B$38/20),"-"))</f>
-        <v>24.1428571428571</v>
+        <v>26</v>
       </c>
       <c r="D39" s="40" t="n">
         <f aca="false">IFERROR((IF(C39-($B$38/$G$4) &lt; 0,"-", C39-($B$38/$G$4))),IFERROR(C39-($B$38/20),"-"))</f>
-        <v>22.2857142857143</v>
+        <v>24</v>
       </c>
       <c r="E39" s="40" t="n">
         <f aca="false">IFERROR((IF(D39-($B$38/$G$4) &lt; 0,"-", D39-($B$38/$G$4))),IFERROR(D39-($B$38/20),"-"))</f>
-        <v>20.4285714285714</v>
+        <v>22</v>
       </c>
       <c r="F39" s="40" t="n">
         <f aca="false">IFERROR((IF(E39-($B$38/$G$4) &lt; 0,"-", E39-($B$38/$G$4))),IFERROR(E39-($B$38/20),"-"))</f>
-        <v>18.5714285714286</v>
+        <v>20</v>
       </c>
       <c r="G39" s="40" t="n">
         <f aca="false">IFERROR((IF(F39-($B$38/$G$4) &lt; 0,"-", F39-($B$38/$G$4))),IFERROR(F39-($B$38/20),"-"))</f>
-        <v>16.7142857142857</v>
+        <v>18</v>
       </c>
       <c r="H39" s="40" t="n">
         <f aca="false">IFERROR((IF(G39-($B$38/$G$4) &lt; 0,"-", G39-($B$38/$G$4))),IFERROR(G39-($B$38/20),"-"))</f>
-        <v>14.8571428571429</v>
+        <v>16</v>
       </c>
       <c r="I39" s="40" t="n">
         <f aca="false">IFERROR((IF(H39-($B$38/$G$4) &lt; 0,"-", H39-($B$38/$G$4))),IFERROR(H39-($B$38/20),"-"))</f>
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="J39" s="40" t="n">
         <f aca="false">IFERROR((IF(I39-($B$38/$G$4) &lt; 0,"-", I39-($B$38/$G$4))),IFERROR(I39-($B$38/20),"-"))</f>
-        <v>11.1428571428571</v>
+        <v>12</v>
       </c>
       <c r="K39" s="40" t="n">
         <f aca="false">IFERROR((IF(J39-($B$38/$G$4) &lt; 0,"-", J39-($B$38/$G$4))),IFERROR(J39-($B$38/20),"-"))</f>
-        <v>9.28571428571428</v>
+        <v>10</v>
       </c>
       <c r="L39" s="40" t="n">
         <f aca="false">IFERROR((IF(K39-($B$38/$G$4) &lt; 0,"-", K39-($B$38/$G$4))),IFERROR(K39-($B$38/20),"-"))</f>
-        <v>7.42857142857142</v>
+        <v>8</v>
       </c>
       <c r="M39" s="40" t="n">
         <f aca="false">IFERROR((IF(L39-($B$38/$G$4) &lt; 0,"-", L39-($B$38/$G$4))),IFERROR(L39-($B$38/20),"-"))</f>
-        <v>5.57142857142857</v>
+        <v>6</v>
       </c>
       <c r="N39" s="40" t="n">
         <f aca="false">IFERROR((IF(M39-($B$38/$G$4) &lt; 0,"-", M39-($B$38/$G$4))),IFERROR(M39-($B$38/20),"-"))</f>
-        <v>3.71428571428571</v>
+        <v>4</v>
       </c>
       <c r="O39" s="40" t="n">
         <f aca="false">IFERROR((IF(N39-($B$38/$G$4) &lt; 0,"-", N39-($B$38/$G$4))),IFERROR(N39-($B$38/20),"-"))</f>
-        <v>1.85714285714285</v>
+        <v>2</v>
       </c>
       <c r="P39" s="40" t="n">
         <f aca="false">IFERROR((IF(O39-($B$38/$G$4) &lt; 0,"-", O39-($B$38/$G$4))),IFERROR(O39-($B$38/20),"-"))</f>
@@ -3776,7 +3778,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{341527B0-EC89-4E55-A56A-A0CD40B02028}</x14:id>
+          <x14:id>{C323FFF8-D289-4010-88D8-00A2EC1B20DB}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -3794,7 +3796,7 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
       <x14:conditionalFormattings>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{341527B0-EC89-4E55-A56A-A0CD40B02028}">
+          <x14:cfRule type="dataBar" id="{C323FFF8-D289-4010-88D8-00A2EC1B20DB}">
             <x14:dataBar minLength="10" maxLength="90" axisPosition="automatic" gradient="false">
               <x14:cfvo type="num">
                 <xm:f>0</xm:f>
@@ -3825,7 +3827,7 @@
       <selection pane="topLeft" activeCell="T37" activeCellId="0" sqref="T37"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.5390625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>

--- a/burndownchart(3).xlsx
+++ b/burndownchart(3).xlsx
@@ -34,6 +34,7 @@
             <color rgb="FF000000"/>
             <rFont val="Calibri"/>
             <family val="2"/>
+            <charset val="1"/>
           </rPr>
           <t xml:space="preserve">For an Accurate Burndown Chart and Ideal Trend, Fill in the expected working days in an Iteration (1 Week = 5 Days).
 You can additionally  choose to hide columns that are not needed. If your Iteration is 2 weeks long, you can hide columns M through V and place 10 in this box.
@@ -45,6 +46,7 @@
             <color rgb="FF000000"/>
             <rFont val="Tahoma"/>
             <family val="2"/>
+            <charset val="1"/>
           </rPr>
           <t xml:space="preserve">
 Default Formula Assumes 20 days</t>
@@ -56,7 +58,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="36">
   <si>
     <t xml:space="preserve">Iteration Number:</t>
   </si>
@@ -91,34 +93,13 @@
     <t xml:space="preserve">Percentage Completed</t>
   </si>
   <si>
-    <t xml:space="preserve">Establish Connection</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Control Player remotely</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Host</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Join</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Lobby</t>
+    <t xml:space="preserve">Fix Multiplayer</t>
   </si>
   <si>
     <t xml:space="preserve">options menu</t>
   </si>
   <si>
-    <t xml:space="preserve">main screen improvements</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Timer</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Win screen</t>
-  </si>
-  <si>
-    <t xml:space="preserve">fix corner bug</t>
+    <t xml:space="preserve">Arcade Plans</t>
   </si>
   <si>
     <t xml:space="preserve">Pause button</t>
@@ -204,6 +185,7 @@
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -226,12 +208,14 @@
       <color rgb="FF203864"/>
       <name val="Malgun Gothic"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Malgun Gothic"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <b val="true"/>
@@ -239,6 +223,7 @@
       <color rgb="FF2F5597"/>
       <name val="Malgun Gothic"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <b val="true"/>
@@ -246,6 +231,7 @@
       <color rgb="FF203864"/>
       <name val="Malgun Gothic"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <b val="true"/>
@@ -253,6 +239,7 @@
       <color rgb="FF808080"/>
       <name val="Malgun Gothic"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <b val="true"/>
@@ -260,6 +247,7 @@
       <color rgb="FF4472C4"/>
       <name val="Malgun Gothic"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <b val="true"/>
@@ -267,12 +255,14 @@
       <color rgb="FF000000"/>
       <name val="Malgun Gothic"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="9"/>
       <color rgb="FF000000"/>
       <name val="Tahoma"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <b val="true"/>
@@ -1039,7 +1029,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr b="1" sz="1600" spc="111" strike="noStrike">
+              <a:defRPr b="1" sz="1600" spc="109" strike="noStrike">
                 <a:solidFill>
                   <a:srgbClr val="595959"/>
                 </a:solidFill>
@@ -1047,7 +1037,7 @@
               </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:rPr b="1" sz="1600" spc="111" strike="noStrike">
+              <a:rPr b="1" sz="1600" spc="109" strike="noStrike">
                 <a:solidFill>
                   <a:srgbClr val="595959"/>
                 </a:solidFill>
@@ -1212,13 +1202,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="21"/>
                 <c:pt idx="0">
-                  <c:v>28</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>3</c:v>
+                  <c:v>33</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1367,46 +1351,46 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="21"/>
                 <c:pt idx="0">
-                  <c:v>28</c:v>
+                  <c:v>33</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>26</c:v>
+                  <c:v>30.6428571428571</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>24</c:v>
+                  <c:v>28.2857142857143</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>22</c:v>
+                  <c:v>25.9285714285714</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>20</c:v>
+                  <c:v>23.5714285714286</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>18</c:v>
+                  <c:v>21.2142857142857</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>16</c:v>
+                  <c:v>18.8571428571429</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>14</c:v>
+                  <c:v>16.5</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>12</c:v>
+                  <c:v>14.1428571428571</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>10</c:v>
+                  <c:v>11.7857142857143</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>8</c:v>
+                  <c:v>9.42857142857142</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>6</c:v>
+                  <c:v>7.07142857142857</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>4</c:v>
+                  <c:v>4.71428571428571</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>2</c:v>
+                  <c:v>2.35714285714285</c:v>
                 </c:pt>
                 <c:pt idx="14">
                   <c:v>0</c:v>
@@ -1424,11 +1408,11 @@
           </c:spPr>
         </c:hiLowLines>
         <c:marker val="1"/>
-        <c:axId val="43081576"/>
-        <c:axId val="72422449"/>
+        <c:axId val="56478179"/>
+        <c:axId val="85492543"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="43081576"/>
+        <c:axId val="56478179"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1461,7 +1445,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr b="0" sz="800" spc="111" strike="noStrike">
+              <a:defRPr b="0" sz="800" spc="109" strike="noStrike">
                 <a:solidFill>
                   <a:srgbClr val="595959"/>
                 </a:solidFill>
@@ -1470,7 +1454,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="72422449"/>
+        <c:crossAx val="85492543"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1478,7 +1462,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="72422449"/>
+        <c:axId val="85492543"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1510,7 +1494,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="43081576"/>
+        <c:crossAx val="56478179"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1574,7 +1558,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr b="1" sz="1600" spc="92" strike="noStrike">
+              <a:defRPr b="1" sz="1600" spc="89" strike="noStrike">
                 <a:solidFill>
                   <a:srgbClr val="f2f2f2"/>
                 </a:solidFill>
@@ -1582,7 +1566,7 @@
               </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:rPr b="1" sz="1600" spc="92" strike="noStrike">
+              <a:rPr b="1" sz="1600" spc="89" strike="noStrike">
                 <a:solidFill>
                   <a:srgbClr val="f2f2f2"/>
                 </a:solidFill>
@@ -1758,13 +1742,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="21"/>
                 <c:pt idx="0">
-                  <c:v>28</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>3</c:v>
+                  <c:v>33</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1912,46 +1890,46 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="21"/>
                 <c:pt idx="0">
-                  <c:v>28</c:v>
+                  <c:v>33</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>26</c:v>
+                  <c:v>30.6428571428571</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>24</c:v>
+                  <c:v>28.2857142857143</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>22</c:v>
+                  <c:v>25.9285714285714</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>20</c:v>
+                  <c:v>23.5714285714286</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>18</c:v>
+                  <c:v>21.2142857142857</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>16</c:v>
+                  <c:v>18.8571428571429</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>14</c:v>
+                  <c:v>16.5</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>12</c:v>
+                  <c:v>14.1428571428571</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>10</c:v>
+                  <c:v>11.7857142857143</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>8</c:v>
+                  <c:v>9.42857142857142</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>6</c:v>
+                  <c:v>7.07142857142857</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>4</c:v>
+                  <c:v>4.71428571428571</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>2</c:v>
+                  <c:v>2.35714285714285</c:v>
                 </c:pt>
                 <c:pt idx="14">
                   <c:v>0</c:v>
@@ -1969,11 +1947,11 @@
           </c:spPr>
         </c:hiLowLines>
         <c:marker val="0"/>
-        <c:axId val="43537968"/>
-        <c:axId val="53548046"/>
+        <c:axId val="91926016"/>
+        <c:axId val="47846081"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="43537968"/>
+        <c:axId val="91926016"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2041,7 +2019,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="53548046"/>
+        <c:crossAx val="47846081"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2049,7 +2027,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="53548046"/>
+        <c:axId val="47846081"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2124,7 +2102,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="43537968"/>
+        <c:crossAx val="91926016"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2194,9 +2172,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>23</xdr:col>
-      <xdr:colOff>1046880</xdr:colOff>
+      <xdr:colOff>1046520</xdr:colOff>
       <xdr:row>4</xdr:row>
-      <xdr:rowOff>1103760</xdr:rowOff>
+      <xdr:rowOff>1103400</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -2205,7 +2183,7 @@
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="10417320" y="66600"/>
-        <a:ext cx="9207000" cy="2046960"/>
+        <a:ext cx="9206640" cy="2046600"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -2229,9 +2207,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>23</xdr:col>
-      <xdr:colOff>227520</xdr:colOff>
+      <xdr:colOff>227160</xdr:colOff>
       <xdr:row>37</xdr:row>
-      <xdr:rowOff>23760</xdr:rowOff>
+      <xdr:rowOff>23400</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -2240,7 +2218,7 @@
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="237960" y="203760"/>
-        <a:ext cx="17457120" cy="6304680"/>
+        <a:ext cx="17456760" cy="6304320"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -2265,7 +2243,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="C1" activeCellId="0" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A8" activeCellId="0" sqref="A8"/>
-      <selection pane="bottomRight" activeCell="D9" activeCellId="0" sqref="D9"/>
+      <selection pane="bottomRight" activeCell="H11" activeCellId="0" sqref="H11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2343,7 +2321,7 @@
       <c r="F3" s="5"/>
       <c r="G3" s="6" t="n">
         <f aca="false">B38</f>
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="H3" s="7"/>
       <c r="I3" s="7"/>
@@ -2532,11 +2510,9 @@
         <v>11</v>
       </c>
       <c r="B8" s="17" t="n">
-        <v>2</v>
-      </c>
-      <c r="C8" s="18" t="n">
-        <v>2</v>
-      </c>
+        <v>25</v>
+      </c>
+      <c r="C8" s="18"/>
       <c r="D8" s="19"/>
       <c r="E8" s="18"/>
       <c r="F8" s="19"/>
@@ -2558,24 +2534,18 @@
       <c r="V8" s="19"/>
       <c r="W8" s="20" t="n">
         <f aca="false">B8-SUM(C8:V8)</f>
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="X8" s="21" t="n">
         <f aca="false">IFERROR(1-(W8/B8),"")</f>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="30" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A9" s="22" t="s">
-        <v>12</v>
-      </c>
-      <c r="B9" s="23" t="n">
-        <v>3</v>
-      </c>
+      <c r="A9" s="22"/>
+      <c r="B9" s="23"/>
       <c r="C9" s="24"/>
-      <c r="D9" s="25" t="n">
-        <v>2</v>
-      </c>
+      <c r="D9" s="25"/>
       <c r="E9" s="24"/>
       <c r="F9" s="25"/>
       <c r="G9" s="24"/>
@@ -2596,23 +2566,17 @@
       <c r="V9" s="25"/>
       <c r="W9" s="26" t="n">
         <f aca="false">B9-SUM(C9:V9)</f>
-        <v>1</v>
-      </c>
-      <c r="X9" s="21" t="n">
+        <v>0</v>
+      </c>
+      <c r="X9" s="21" t="str">
         <f aca="false">IFERROR(1-(W9/B9),"")</f>
-        <v>0.666666666666667</v>
+        <v/>
       </c>
     </row>
     <row r="10" customFormat="false" ht="30" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A10" s="22" t="s">
-        <v>13</v>
-      </c>
-      <c r="B10" s="23" t="n">
-        <v>4</v>
-      </c>
-      <c r="C10" s="24" t="n">
-        <v>4</v>
-      </c>
+      <c r="A10" s="22"/>
+      <c r="B10" s="23"/>
+      <c r="C10" s="24"/>
       <c r="D10" s="25"/>
       <c r="E10" s="24"/>
       <c r="F10" s="25"/>
@@ -2636,21 +2600,15 @@
         <f aca="false">B10-SUM(C10:V10)</f>
         <v>0</v>
       </c>
-      <c r="X10" s="21" t="n">
+      <c r="X10" s="21" t="str">
         <f aca="false">IFERROR(1-(W10/B10),"")</f>
-        <v>1</v>
+        <v/>
       </c>
     </row>
     <row r="11" customFormat="false" ht="30" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A11" s="22" t="s">
-        <v>14</v>
-      </c>
-      <c r="B11" s="23" t="n">
-        <v>4</v>
-      </c>
-      <c r="C11" s="24" t="n">
-        <v>4</v>
-      </c>
+      <c r="A11" s="22"/>
+      <c r="B11" s="23"/>
+      <c r="C11" s="24"/>
       <c r="D11" s="25"/>
       <c r="E11" s="24"/>
       <c r="F11" s="25"/>
@@ -2674,21 +2632,15 @@
         <f aca="false">B11-SUM(C11:V11)</f>
         <v>0</v>
       </c>
-      <c r="X11" s="21" t="n">
+      <c r="X11" s="21" t="str">
         <f aca="false">IFERROR(1-(W11/B11),"")</f>
-        <v>1</v>
+        <v/>
       </c>
     </row>
     <row r="12" customFormat="false" ht="30" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A12" s="22" t="s">
-        <v>15</v>
-      </c>
-      <c r="B12" s="23" t="n">
-        <v>3</v>
-      </c>
-      <c r="C12" s="24" t="n">
-        <v>2</v>
-      </c>
+      <c r="A12" s="22"/>
+      <c r="B12" s="23"/>
+      <c r="C12" s="24"/>
       <c r="D12" s="25"/>
       <c r="E12" s="24"/>
       <c r="F12" s="25"/>
@@ -2710,23 +2662,21 @@
       <c r="V12" s="25"/>
       <c r="W12" s="26" t="n">
         <f aca="false">B12-SUM(C12:V12)</f>
-        <v>1</v>
-      </c>
-      <c r="X12" s="21" t="n">
+        <v>0</v>
+      </c>
+      <c r="X12" s="21" t="str">
         <f aca="false">IFERROR(1-(W12/B12),"")</f>
-        <v>0.666666666666667</v>
+        <v/>
       </c>
     </row>
     <row r="13" customFormat="false" ht="30" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A13" s="22" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="B13" s="23" t="n">
         <v>2</v>
       </c>
-      <c r="C13" s="24" t="n">
-        <v>2</v>
-      </c>
+      <c r="C13" s="24"/>
       <c r="D13" s="25"/>
       <c r="E13" s="24"/>
       <c r="F13" s="25"/>
@@ -2748,23 +2698,21 @@
       <c r="V13" s="25"/>
       <c r="W13" s="26" t="n">
         <f aca="false">B13-SUM(C13:V13)</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="X13" s="21" t="n">
         <f aca="false">IFERROR(1-(W13/B13),"")</f>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="30" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A14" s="22" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="B14" s="23" t="n">
-        <v>1</v>
-      </c>
-      <c r="C14" s="24" t="n">
-        <v>1</v>
-      </c>
+        <v>4</v>
+      </c>
+      <c r="C14" s="24"/>
       <c r="D14" s="25"/>
       <c r="E14" s="24"/>
       <c r="F14" s="25"/>
@@ -2786,23 +2734,17 @@
       <c r="V14" s="25"/>
       <c r="W14" s="26" t="n">
         <f aca="false">B14-SUM(C14:V14)</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="X14" s="21" t="n">
         <f aca="false">IFERROR(1-(W14/B14),"")</f>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="30" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A15" s="22" t="s">
-        <v>18</v>
-      </c>
-      <c r="B15" s="23" t="n">
-        <v>1</v>
-      </c>
-      <c r="C15" s="24" t="n">
-        <v>1</v>
-      </c>
+      <c r="A15" s="22"/>
+      <c r="B15" s="23"/>
+      <c r="C15" s="24"/>
       <c r="D15" s="25"/>
       <c r="E15" s="24"/>
       <c r="F15" s="25"/>
@@ -2826,21 +2768,15 @@
         <f aca="false">B15-SUM(C15:V15)</f>
         <v>0</v>
       </c>
-      <c r="X15" s="21" t="n">
+      <c r="X15" s="21" t="str">
         <f aca="false">IFERROR(1-(W15/B15),"")</f>
-        <v>1</v>
+        <v/>
       </c>
     </row>
     <row r="16" customFormat="false" ht="30" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A16" s="22" t="s">
-        <v>19</v>
-      </c>
-      <c r="B16" s="23" t="n">
-        <v>1</v>
-      </c>
-      <c r="C16" s="24" t="n">
-        <v>1</v>
-      </c>
+      <c r="A16" s="22"/>
+      <c r="B16" s="23"/>
+      <c r="C16" s="24"/>
       <c r="D16" s="25"/>
       <c r="E16" s="24"/>
       <c r="F16" s="25"/>
@@ -2864,21 +2800,15 @@
         <f aca="false">B16-SUM(C16:V16)</f>
         <v>0</v>
       </c>
-      <c r="X16" s="21" t="n">
+      <c r="X16" s="21" t="str">
         <f aca="false">IFERROR(1-(W16/B16),"")</f>
-        <v>1</v>
+        <v/>
       </c>
     </row>
     <row r="17" customFormat="false" ht="30" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A17" s="22" t="s">
-        <v>20</v>
-      </c>
-      <c r="B17" s="23" t="n">
-        <v>5</v>
-      </c>
-      <c r="C17" s="24" t="n">
-        <v>5</v>
-      </c>
+      <c r="A17" s="22"/>
+      <c r="B17" s="23"/>
+      <c r="C17" s="24"/>
       <c r="D17" s="25"/>
       <c r="E17" s="24"/>
       <c r="F17" s="25"/>
@@ -2902,22 +2832,20 @@
         <f aca="false">B17-SUM(C17:V17)</f>
         <v>0</v>
       </c>
-      <c r="X17" s="21" t="n">
+      <c r="X17" s="21" t="str">
         <f aca="false">IFERROR(1-(W17/B17),"")</f>
-        <v>1</v>
+        <v/>
       </c>
     </row>
     <row r="18" customFormat="false" ht="30" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A18" s="22" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="B18" s="23" t="n">
         <v>2</v>
       </c>
       <c r="C18" s="24"/>
-      <c r="D18" s="25" t="n">
-        <v>1</v>
-      </c>
+      <c r="D18" s="25"/>
       <c r="E18" s="24"/>
       <c r="F18" s="25"/>
       <c r="G18" s="24"/>
@@ -2938,16 +2866,16 @@
       <c r="V18" s="25"/>
       <c r="W18" s="26" t="n">
         <f aca="false">B18-SUM(C18:V18)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="X18" s="21" t="n">
         <f aca="false">IFERROR(1-(W18/B18),"")</f>
-        <v>0.5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="30" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A19" s="22" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="B19" s="23"/>
       <c r="C19" s="24"/>
@@ -2981,7 +2909,7 @@
     </row>
     <row r="20" customFormat="false" ht="30" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A20" s="22" t="s">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="B20" s="23"/>
       <c r="C20" s="24"/>
@@ -3015,7 +2943,7 @@
     </row>
     <row r="21" customFormat="false" ht="30" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A21" s="22" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="B21" s="23"/>
       <c r="C21" s="24"/>
@@ -3049,7 +2977,7 @@
     </row>
     <row r="22" customFormat="false" ht="30" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A22" s="22" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="B22" s="23"/>
       <c r="C22" s="24"/>
@@ -3083,7 +3011,7 @@
     </row>
     <row r="23" customFormat="false" ht="30" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A23" s="22" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="B23" s="23"/>
       <c r="C23" s="24"/>
@@ -3117,7 +3045,7 @@
     </row>
     <row r="24" customFormat="false" ht="30" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A24" s="22" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="B24" s="23"/>
       <c r="C24" s="24"/>
@@ -3151,7 +3079,7 @@
     </row>
     <row r="25" customFormat="false" ht="30" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A25" s="22" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="B25" s="23"/>
       <c r="C25" s="24"/>
@@ -3185,7 +3113,7 @@
     </row>
     <row r="26" customFormat="false" ht="30" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A26" s="22" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="B26" s="23"/>
       <c r="C26" s="24"/>
@@ -3219,7 +3147,7 @@
     </row>
     <row r="27" customFormat="false" ht="30" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A27" s="22" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="B27" s="23"/>
       <c r="C27" s="24"/>
@@ -3253,7 +3181,7 @@
     </row>
     <row r="28" customFormat="false" ht="30" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A28" s="22" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="B28" s="23"/>
       <c r="C28" s="24"/>
@@ -3287,7 +3215,7 @@
     </row>
     <row r="29" customFormat="false" ht="30" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A29" s="22" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="B29" s="23"/>
       <c r="C29" s="24"/>
@@ -3321,7 +3249,7 @@
     </row>
     <row r="30" customFormat="false" ht="30" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A30" s="22" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="B30" s="23"/>
       <c r="C30" s="24"/>
@@ -3355,7 +3283,7 @@
     </row>
     <row r="31" customFormat="false" ht="30" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A31" s="22" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="B31" s="23"/>
       <c r="C31" s="24"/>
@@ -3389,7 +3317,7 @@
     </row>
     <row r="32" customFormat="false" ht="30" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A32" s="22" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="B32" s="23"/>
       <c r="C32" s="24"/>
@@ -3423,7 +3351,7 @@
     </row>
     <row r="33" customFormat="false" ht="30" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A33" s="22" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="B33" s="23"/>
       <c r="C33" s="24"/>
@@ -3457,7 +3385,7 @@
     </row>
     <row r="34" customFormat="false" ht="30" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A34" s="22" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="B34" s="23"/>
       <c r="C34" s="24"/>
@@ -3491,7 +3419,7 @@
     </row>
     <row r="35" customFormat="false" ht="30" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A35" s="22" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="B35" s="23"/>
       <c r="C35" s="24"/>
@@ -3525,7 +3453,7 @@
     </row>
     <row r="36" customFormat="false" ht="30" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A36" s="22" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="B36" s="23"/>
       <c r="C36" s="24"/>
@@ -3559,7 +3487,7 @@
     </row>
     <row r="37" customFormat="false" ht="30" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A37" s="27" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="B37" s="28"/>
       <c r="C37" s="29"/>
@@ -3593,19 +3521,19 @@
     </row>
     <row r="38" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="33" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="B38" s="34" t="n">
         <f aca="false">SUM(B8:B37)</f>
-        <v>28</v>
-      </c>
-      <c r="C38" s="35" t="n">
+        <v>33</v>
+      </c>
+      <c r="C38" s="35" t="e">
         <f aca="false">IFERROR(IF(B38-SUM(C8:C37)=B38,NA(),B38-SUM(C8:C37)),NA())</f>
-        <v>6</v>
-      </c>
-      <c r="D38" s="35" t="n">
+        <v>#N/A</v>
+      </c>
+      <c r="D38" s="35" t="e">
         <f aca="false">IFERROR(IF(C38-SUM(D8:D37)=C38,NA(),C38-SUM(D8:D37)),NA())</f>
-        <v>3</v>
+        <v>#N/A</v>
       </c>
       <c r="E38" s="35" t="e">
         <f aca="false">IFERROR(IF(D38-SUM(E8:E37)=D38,NA(),D38-SUM(E8:E37)),NA())</f>
@@ -3681,72 +3609,72 @@
       </c>
       <c r="W38" s="36" t="n">
         <f aca="false">SUM(W8:W37)</f>
-        <v>3</v>
+        <v>33</v>
       </c>
       <c r="X38" s="37" t="n">
         <f aca="false">IFERROR(1-(W38/B38),"")</f>
-        <v>0.892857142857143</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="38" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="B39" s="39" t="n">
         <f aca="false">SUM(B8:B37)</f>
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="C39" s="40" t="n">
         <f aca="false">IFERROR((IF(B39-($B$38/$G$4) &lt; 0,"-", B39-($B$38/$G$4))),IFERROR(B39-($B$38/20),"-"))</f>
-        <v>26</v>
+        <v>30.6428571428571</v>
       </c>
       <c r="D39" s="40" t="n">
         <f aca="false">IFERROR((IF(C39-($B$38/$G$4) &lt; 0,"-", C39-($B$38/$G$4))),IFERROR(C39-($B$38/20),"-"))</f>
-        <v>24</v>
+        <v>28.2857142857143</v>
       </c>
       <c r="E39" s="40" t="n">
         <f aca="false">IFERROR((IF(D39-($B$38/$G$4) &lt; 0,"-", D39-($B$38/$G$4))),IFERROR(D39-($B$38/20),"-"))</f>
-        <v>22</v>
+        <v>25.9285714285714</v>
       </c>
       <c r="F39" s="40" t="n">
         <f aca="false">IFERROR((IF(E39-($B$38/$G$4) &lt; 0,"-", E39-($B$38/$G$4))),IFERROR(E39-($B$38/20),"-"))</f>
-        <v>20</v>
+        <v>23.5714285714286</v>
       </c>
       <c r="G39" s="40" t="n">
         <f aca="false">IFERROR((IF(F39-($B$38/$G$4) &lt; 0,"-", F39-($B$38/$G$4))),IFERROR(F39-($B$38/20),"-"))</f>
-        <v>18</v>
+        <v>21.2142857142857</v>
       </c>
       <c r="H39" s="40" t="n">
         <f aca="false">IFERROR((IF(G39-($B$38/$G$4) &lt; 0,"-", G39-($B$38/$G$4))),IFERROR(G39-($B$38/20),"-"))</f>
-        <v>16</v>
+        <v>18.8571428571429</v>
       </c>
       <c r="I39" s="40" t="n">
         <f aca="false">IFERROR((IF(H39-($B$38/$G$4) &lt; 0,"-", H39-($B$38/$G$4))),IFERROR(H39-($B$38/20),"-"))</f>
-        <v>14</v>
+        <v>16.5</v>
       </c>
       <c r="J39" s="40" t="n">
         <f aca="false">IFERROR((IF(I39-($B$38/$G$4) &lt; 0,"-", I39-($B$38/$G$4))),IFERROR(I39-($B$38/20),"-"))</f>
-        <v>12</v>
+        <v>14.1428571428571</v>
       </c>
       <c r="K39" s="40" t="n">
         <f aca="false">IFERROR((IF(J39-($B$38/$G$4) &lt; 0,"-", J39-($B$38/$G$4))),IFERROR(J39-($B$38/20),"-"))</f>
-        <v>10</v>
+        <v>11.7857142857143</v>
       </c>
       <c r="L39" s="40" t="n">
         <f aca="false">IFERROR((IF(K39-($B$38/$G$4) &lt; 0,"-", K39-($B$38/$G$4))),IFERROR(K39-($B$38/20),"-"))</f>
-        <v>8</v>
+        <v>9.42857142857142</v>
       </c>
       <c r="M39" s="40" t="n">
         <f aca="false">IFERROR((IF(L39-($B$38/$G$4) &lt; 0,"-", L39-($B$38/$G$4))),IFERROR(L39-($B$38/20),"-"))</f>
-        <v>6</v>
+        <v>7.07142857142857</v>
       </c>
       <c r="N39" s="40" t="n">
         <f aca="false">IFERROR((IF(M39-($B$38/$G$4) &lt; 0,"-", M39-($B$38/$G$4))),IFERROR(M39-($B$38/20),"-"))</f>
-        <v>4</v>
+        <v>4.71428571428571</v>
       </c>
       <c r="O39" s="40" t="n">
         <f aca="false">IFERROR((IF(N39-($B$38/$G$4) &lt; 0,"-", N39-($B$38/$G$4))),IFERROR(N39-($B$38/20),"-"))</f>
-        <v>2</v>
+        <v>2.35714285714285</v>
       </c>
       <c r="P39" s="40" t="n">
         <f aca="false">IFERROR((IF(O39-($B$38/$G$4) &lt; 0,"-", O39-($B$38/$G$4))),IFERROR(O39-($B$38/20),"-"))</f>
@@ -3800,7 +3728,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{7CE3BE5A-B170-437F-81D8-2819B4A5E549}</x14:id>
+          <x14:id>{2C2B8A83-5A78-4EA0-8B1C-A4D4D0F5F04F}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -3818,7 +3746,7 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
       <x14:conditionalFormattings>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{7CE3BE5A-B170-437F-81D8-2819B4A5E549}">
+          <x14:cfRule type="dataBar" id="{2C2B8A83-5A78-4EA0-8B1C-A4D4D0F5F04F}">
             <x14:dataBar minLength="10" maxLength="90" axisPosition="automatic" gradient="false">
               <x14:cfvo type="num">
                 <xm:f>0</xm:f>

--- a/burndownchart(3).xlsx
+++ b/burndownchart(3).xlsx
@@ -58,7 +58,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="37">
   <si>
     <t xml:space="preserve">Iteration Number:</t>
   </si>
@@ -93,16 +93,19 @@
     <t xml:space="preserve">Percentage Completed</t>
   </si>
   <si>
-    <t xml:space="preserve">Fix Multiplayer</t>
+    <t xml:space="preserve">Fix Multiplayer – Evan</t>
   </si>
   <si>
-    <t xml:space="preserve">options menu</t>
+    <t xml:space="preserve">Clean Code – Mcclain</t>
   </si>
   <si>
-    <t xml:space="preserve">Arcade Plans</t>
+    <t xml:space="preserve">options menu – John</t>
   </si>
   <si>
-    <t xml:space="preserve">Pause button</t>
+    <t xml:space="preserve">Arcade Plans – Tyler</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pause button – Cougar</t>
   </si>
   <si>
     <t xml:space="preserve">Feature 12</t>
@@ -1029,7 +1032,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr b="1" sz="1600" spc="109" strike="noStrike">
+              <a:defRPr b="1" sz="1600" spc="106" strike="noStrike">
                 <a:solidFill>
                   <a:srgbClr val="595959"/>
                 </a:solidFill>
@@ -1037,7 +1040,7 @@
               </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:rPr b="1" sz="1600" spc="109" strike="noStrike">
+              <a:rPr b="1" sz="1600" spc="106" strike="noStrike">
                 <a:solidFill>
                   <a:srgbClr val="595959"/>
                 </a:solidFill>
@@ -1202,7 +1205,10 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="21"/>
                 <c:pt idx="0">
-                  <c:v>33</c:v>
+                  <c:v>36</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1351,46 +1357,46 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="21"/>
                 <c:pt idx="0">
-                  <c:v>33</c:v>
+                  <c:v>36</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>30.6428571428571</c:v>
+                  <c:v>33.4285714285714</c:v>
                 </c:pt>
                 <c:pt idx="2">
+                  <c:v>30.8571428571429</c:v>
+                </c:pt>
+                <c:pt idx="3">
                   <c:v>28.2857142857143</c:v>
                 </c:pt>
-                <c:pt idx="3">
-                  <c:v>25.9285714285714</c:v>
-                </c:pt>
                 <c:pt idx="4">
-                  <c:v>23.5714285714286</c:v>
+                  <c:v>25.7142857142857</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>21.2142857142857</c:v>
+                  <c:v>23.1428571428571</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>18.8571428571429</c:v>
+                  <c:v>20.5714285714286</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>16.5</c:v>
+                  <c:v>18</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>14.1428571428571</c:v>
+                  <c:v>15.4285714285714</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>11.7857142857143</c:v>
+                  <c:v>12.8571428571429</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>9.42857142857142</c:v>
+                  <c:v>10.2857142857143</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>7.07142857142857</c:v>
+                  <c:v>7.71428571428571</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>4.71428571428571</c:v>
+                  <c:v>5.14285714285714</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>2.35714285714285</c:v>
+                  <c:v>2.57142857142857</c:v>
                 </c:pt>
                 <c:pt idx="14">
                   <c:v>0</c:v>
@@ -1408,11 +1414,11 @@
           </c:spPr>
         </c:hiLowLines>
         <c:marker val="1"/>
-        <c:axId val="56478179"/>
-        <c:axId val="85492543"/>
+        <c:axId val="66557286"/>
+        <c:axId val="12222326"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="56478179"/>
+        <c:axId val="66557286"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1445,7 +1451,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr b="0" sz="800" spc="109" strike="noStrike">
+              <a:defRPr b="0" sz="800" spc="106" strike="noStrike">
                 <a:solidFill>
                   <a:srgbClr val="595959"/>
                 </a:solidFill>
@@ -1454,7 +1460,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="85492543"/>
+        <c:crossAx val="12222326"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1462,7 +1468,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="85492543"/>
+        <c:axId val="12222326"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1494,7 +1500,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="56478179"/>
+        <c:crossAx val="66557286"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1558,7 +1564,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr b="1" sz="1600" spc="89" strike="noStrike">
+              <a:defRPr b="1" sz="1600" spc="86" strike="noStrike">
                 <a:solidFill>
                   <a:srgbClr val="f2f2f2"/>
                 </a:solidFill>
@@ -1566,7 +1572,7 @@
               </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:rPr b="1" sz="1600" spc="89" strike="noStrike">
+              <a:rPr b="1" sz="1600" spc="86" strike="noStrike">
                 <a:solidFill>
                   <a:srgbClr val="f2f2f2"/>
                 </a:solidFill>
@@ -1742,7 +1748,10 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="21"/>
                 <c:pt idx="0">
-                  <c:v>33</c:v>
+                  <c:v>36</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1890,46 +1899,46 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="21"/>
                 <c:pt idx="0">
-                  <c:v>33</c:v>
+                  <c:v>36</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>30.6428571428571</c:v>
+                  <c:v>33.4285714285714</c:v>
                 </c:pt>
                 <c:pt idx="2">
+                  <c:v>30.8571428571429</c:v>
+                </c:pt>
+                <c:pt idx="3">
                   <c:v>28.2857142857143</c:v>
                 </c:pt>
-                <c:pt idx="3">
-                  <c:v>25.9285714285714</c:v>
-                </c:pt>
                 <c:pt idx="4">
-                  <c:v>23.5714285714286</c:v>
+                  <c:v>25.7142857142857</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>21.2142857142857</c:v>
+                  <c:v>23.1428571428571</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>18.8571428571429</c:v>
+                  <c:v>20.5714285714286</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>16.5</c:v>
+                  <c:v>18</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>14.1428571428571</c:v>
+                  <c:v>15.4285714285714</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>11.7857142857143</c:v>
+                  <c:v>12.8571428571429</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>9.42857142857142</c:v>
+                  <c:v>10.2857142857143</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>7.07142857142857</c:v>
+                  <c:v>7.71428571428571</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>4.71428571428571</c:v>
+                  <c:v>5.14285714285714</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>2.35714285714285</c:v>
+                  <c:v>2.57142857142857</c:v>
                 </c:pt>
                 <c:pt idx="14">
                   <c:v>0</c:v>
@@ -1947,11 +1956,11 @@
           </c:spPr>
         </c:hiLowLines>
         <c:marker val="0"/>
-        <c:axId val="91926016"/>
-        <c:axId val="47846081"/>
+        <c:axId val="91840291"/>
+        <c:axId val="81489157"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="91926016"/>
+        <c:axId val="91840291"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2019,7 +2028,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="47846081"/>
+        <c:crossAx val="81489157"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2027,7 +2036,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="47846081"/>
+        <c:axId val="81489157"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2102,7 +2111,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="91926016"/>
+        <c:crossAx val="91840291"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2172,9 +2181,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>23</xdr:col>
-      <xdr:colOff>1046520</xdr:colOff>
+      <xdr:colOff>1046160</xdr:colOff>
       <xdr:row>4</xdr:row>
-      <xdr:rowOff>1103400</xdr:rowOff>
+      <xdr:rowOff>1103040</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -2183,7 +2192,7 @@
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="10417320" y="66600"/>
-        <a:ext cx="9206640" cy="2046600"/>
+        <a:ext cx="9206280" cy="2046240"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -2207,9 +2216,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>23</xdr:col>
-      <xdr:colOff>227160</xdr:colOff>
+      <xdr:colOff>226800</xdr:colOff>
       <xdr:row>37</xdr:row>
-      <xdr:rowOff>23400</xdr:rowOff>
+      <xdr:rowOff>23040</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -2218,7 +2227,7 @@
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="237960" y="203760"/>
-        <a:ext cx="17456760" cy="6304320"/>
+        <a:ext cx="17456400" cy="6303960"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -2243,7 +2252,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="C1" activeCellId="0" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A8" activeCellId="0" sqref="A8"/>
-      <selection pane="bottomRight" activeCell="H11" activeCellId="0" sqref="H11"/>
+      <selection pane="bottomRight" activeCell="E14" activeCellId="0" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2321,7 +2330,7 @@
       <c r="F3" s="5"/>
       <c r="G3" s="6" t="n">
         <f aca="false">B38</f>
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="H3" s="7"/>
       <c r="I3" s="7"/>
@@ -2512,7 +2521,9 @@
       <c r="B8" s="17" t="n">
         <v>25</v>
       </c>
-      <c r="C8" s="18"/>
+      <c r="C8" s="18" t="n">
+        <v>20</v>
+      </c>
       <c r="D8" s="19"/>
       <c r="E8" s="18"/>
       <c r="F8" s="19"/>
@@ -2534,17 +2545,23 @@
       <c r="V8" s="19"/>
       <c r="W8" s="20" t="n">
         <f aca="false">B8-SUM(C8:V8)</f>
-        <v>25</v>
+        <v>5</v>
       </c>
       <c r="X8" s="21" t="n">
         <f aca="false">IFERROR(1-(W8/B8),"")</f>
-        <v>0</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="30" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A9" s="22"/>
-      <c r="B9" s="23"/>
-      <c r="C9" s="24"/>
+      <c r="A9" s="22" t="s">
+        <v>12</v>
+      </c>
+      <c r="B9" s="23" t="n">
+        <v>3</v>
+      </c>
+      <c r="C9" s="24" t="n">
+        <v>3</v>
+      </c>
       <c r="D9" s="25"/>
       <c r="E9" s="24"/>
       <c r="F9" s="25"/>
@@ -2568,9 +2585,9 @@
         <f aca="false">B9-SUM(C9:V9)</f>
         <v>0</v>
       </c>
-      <c r="X9" s="21" t="str">
+      <c r="X9" s="21" t="n">
         <f aca="false">IFERROR(1-(W9/B9),"")</f>
-        <v/>
+        <v>1</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="30" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -2671,12 +2688,14 @@
     </row>
     <row r="13" customFormat="false" ht="30" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A13" s="22" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B13" s="23" t="n">
         <v>2</v>
       </c>
-      <c r="C13" s="24"/>
+      <c r="C13" s="24" t="n">
+        <v>2</v>
+      </c>
       <c r="D13" s="25"/>
       <c r="E13" s="24"/>
       <c r="F13" s="25"/>
@@ -2698,21 +2717,23 @@
       <c r="V13" s="25"/>
       <c r="W13" s="26" t="n">
         <f aca="false">B13-SUM(C13:V13)</f>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="X13" s="21" t="n">
         <f aca="false">IFERROR(1-(W13/B13),"")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="30" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A14" s="22" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B14" s="23" t="n">
         <v>4</v>
       </c>
-      <c r="C14" s="24"/>
+      <c r="C14" s="24" t="n">
+        <v>4</v>
+      </c>
       <c r="D14" s="25"/>
       <c r="E14" s="24"/>
       <c r="F14" s="25"/>
@@ -2734,11 +2755,11 @@
       <c r="V14" s="25"/>
       <c r="W14" s="26" t="n">
         <f aca="false">B14-SUM(C14:V14)</f>
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="X14" s="21" t="n">
         <f aca="false">IFERROR(1-(W14/B14),"")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="30" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -2839,12 +2860,14 @@
     </row>
     <row r="18" customFormat="false" ht="30" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A18" s="22" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B18" s="23" t="n">
         <v>2</v>
       </c>
-      <c r="C18" s="24"/>
+      <c r="C18" s="24" t="n">
+        <v>2</v>
+      </c>
       <c r="D18" s="25"/>
       <c r="E18" s="24"/>
       <c r="F18" s="25"/>
@@ -2866,16 +2889,16 @@
       <c r="V18" s="25"/>
       <c r="W18" s="26" t="n">
         <f aca="false">B18-SUM(C18:V18)</f>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="X18" s="21" t="n">
         <f aca="false">IFERROR(1-(W18/B18),"")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="30" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A19" s="22" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B19" s="23"/>
       <c r="C19" s="24"/>
@@ -2909,7 +2932,7 @@
     </row>
     <row r="20" customFormat="false" ht="30" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A20" s="22" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B20" s="23"/>
       <c r="C20" s="24"/>
@@ -2943,7 +2966,7 @@
     </row>
     <row r="21" customFormat="false" ht="30" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A21" s="22" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B21" s="23"/>
       <c r="C21" s="24"/>
@@ -2977,7 +3000,7 @@
     </row>
     <row r="22" customFormat="false" ht="30" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A22" s="22" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B22" s="23"/>
       <c r="C22" s="24"/>
@@ -3011,7 +3034,7 @@
     </row>
     <row r="23" customFormat="false" ht="30" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A23" s="22" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B23" s="23"/>
       <c r="C23" s="24"/>
@@ -3045,7 +3068,7 @@
     </row>
     <row r="24" customFormat="false" ht="30" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A24" s="22" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B24" s="23"/>
       <c r="C24" s="24"/>
@@ -3079,7 +3102,7 @@
     </row>
     <row r="25" customFormat="false" ht="30" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A25" s="22" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B25" s="23"/>
       <c r="C25" s="24"/>
@@ -3113,7 +3136,7 @@
     </row>
     <row r="26" customFormat="false" ht="30" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A26" s="22" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B26" s="23"/>
       <c r="C26" s="24"/>
@@ -3147,7 +3170,7 @@
     </row>
     <row r="27" customFormat="false" ht="30" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A27" s="22" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B27" s="23"/>
       <c r="C27" s="24"/>
@@ -3181,7 +3204,7 @@
     </row>
     <row r="28" customFormat="false" ht="30" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A28" s="22" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B28" s="23"/>
       <c r="C28" s="24"/>
@@ -3215,7 +3238,7 @@
     </row>
     <row r="29" customFormat="false" ht="30" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A29" s="22" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B29" s="23"/>
       <c r="C29" s="24"/>
@@ -3249,7 +3272,7 @@
     </row>
     <row r="30" customFormat="false" ht="30" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A30" s="22" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B30" s="23"/>
       <c r="C30" s="24"/>
@@ -3283,7 +3306,7 @@
     </row>
     <row r="31" customFormat="false" ht="30" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A31" s="22" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B31" s="23"/>
       <c r="C31" s="24"/>
@@ -3317,7 +3340,7 @@
     </row>
     <row r="32" customFormat="false" ht="30" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A32" s="22" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B32" s="23"/>
       <c r="C32" s="24"/>
@@ -3351,7 +3374,7 @@
     </row>
     <row r="33" customFormat="false" ht="30" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A33" s="22" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B33" s="23"/>
       <c r="C33" s="24"/>
@@ -3385,7 +3408,7 @@
     </row>
     <row r="34" customFormat="false" ht="30" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A34" s="22" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B34" s="23"/>
       <c r="C34" s="24"/>
@@ -3419,7 +3442,7 @@
     </row>
     <row r="35" customFormat="false" ht="30" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A35" s="22" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B35" s="23"/>
       <c r="C35" s="24"/>
@@ -3453,7 +3476,7 @@
     </row>
     <row r="36" customFormat="false" ht="30" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A36" s="22" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B36" s="23"/>
       <c r="C36" s="24"/>
@@ -3487,7 +3510,7 @@
     </row>
     <row r="37" customFormat="false" ht="30" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A37" s="27" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B37" s="28"/>
       <c r="C37" s="29"/>
@@ -3521,15 +3544,15 @@
     </row>
     <row r="38" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="33" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B38" s="34" t="n">
         <f aca="false">SUM(B8:B37)</f>
-        <v>33</v>
-      </c>
-      <c r="C38" s="35" t="e">
+        <v>36</v>
+      </c>
+      <c r="C38" s="35" t="n">
         <f aca="false">IFERROR(IF(B38-SUM(C8:C37)=B38,NA(),B38-SUM(C8:C37)),NA())</f>
-        <v>#N/A</v>
+        <v>5</v>
       </c>
       <c r="D38" s="35" t="e">
         <f aca="false">IFERROR(IF(C38-SUM(D8:D37)=C38,NA(),C38-SUM(D8:D37)),NA())</f>
@@ -3609,72 +3632,72 @@
       </c>
       <c r="W38" s="36" t="n">
         <f aca="false">SUM(W8:W37)</f>
-        <v>33</v>
+        <v>5</v>
       </c>
       <c r="X38" s="37" t="n">
         <f aca="false">IFERROR(1-(W38/B38),"")</f>
-        <v>0</v>
+        <v>0.861111111111111</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="38" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B39" s="39" t="n">
         <f aca="false">SUM(B8:B37)</f>
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="C39" s="40" t="n">
         <f aca="false">IFERROR((IF(B39-($B$38/$G$4) &lt; 0,"-", B39-($B$38/$G$4))),IFERROR(B39-($B$38/20),"-"))</f>
-        <v>30.6428571428571</v>
+        <v>33.4285714285714</v>
       </c>
       <c r="D39" s="40" t="n">
         <f aca="false">IFERROR((IF(C39-($B$38/$G$4) &lt; 0,"-", C39-($B$38/$G$4))),IFERROR(C39-($B$38/20),"-"))</f>
-        <v>28.2857142857143</v>
+        <v>30.8571428571429</v>
       </c>
       <c r="E39" s="40" t="n">
         <f aca="false">IFERROR((IF(D39-($B$38/$G$4) &lt; 0,"-", D39-($B$38/$G$4))),IFERROR(D39-($B$38/20),"-"))</f>
-        <v>25.9285714285714</v>
+        <v>28.2857142857143</v>
       </c>
       <c r="F39" s="40" t="n">
         <f aca="false">IFERROR((IF(E39-($B$38/$G$4) &lt; 0,"-", E39-($B$38/$G$4))),IFERROR(E39-($B$38/20),"-"))</f>
-        <v>23.5714285714286</v>
+        <v>25.7142857142857</v>
       </c>
       <c r="G39" s="40" t="n">
         <f aca="false">IFERROR((IF(F39-($B$38/$G$4) &lt; 0,"-", F39-($B$38/$G$4))),IFERROR(F39-($B$38/20),"-"))</f>
-        <v>21.2142857142857</v>
+        <v>23.1428571428571</v>
       </c>
       <c r="H39" s="40" t="n">
         <f aca="false">IFERROR((IF(G39-($B$38/$G$4) &lt; 0,"-", G39-($B$38/$G$4))),IFERROR(G39-($B$38/20),"-"))</f>
-        <v>18.8571428571429</v>
+        <v>20.5714285714286</v>
       </c>
       <c r="I39" s="40" t="n">
         <f aca="false">IFERROR((IF(H39-($B$38/$G$4) &lt; 0,"-", H39-($B$38/$G$4))),IFERROR(H39-($B$38/20),"-"))</f>
-        <v>16.5</v>
+        <v>18</v>
       </c>
       <c r="J39" s="40" t="n">
         <f aca="false">IFERROR((IF(I39-($B$38/$G$4) &lt; 0,"-", I39-($B$38/$G$4))),IFERROR(I39-($B$38/20),"-"))</f>
-        <v>14.1428571428571</v>
+        <v>15.4285714285714</v>
       </c>
       <c r="K39" s="40" t="n">
         <f aca="false">IFERROR((IF(J39-($B$38/$G$4) &lt; 0,"-", J39-($B$38/$G$4))),IFERROR(J39-($B$38/20),"-"))</f>
-        <v>11.7857142857143</v>
+        <v>12.8571428571429</v>
       </c>
       <c r="L39" s="40" t="n">
         <f aca="false">IFERROR((IF(K39-($B$38/$G$4) &lt; 0,"-", K39-($B$38/$G$4))),IFERROR(K39-($B$38/20),"-"))</f>
-        <v>9.42857142857142</v>
+        <v>10.2857142857143</v>
       </c>
       <c r="M39" s="40" t="n">
         <f aca="false">IFERROR((IF(L39-($B$38/$G$4) &lt; 0,"-", L39-($B$38/$G$4))),IFERROR(L39-($B$38/20),"-"))</f>
-        <v>7.07142857142857</v>
+        <v>7.71428571428571</v>
       </c>
       <c r="N39" s="40" t="n">
         <f aca="false">IFERROR((IF(M39-($B$38/$G$4) &lt; 0,"-", M39-($B$38/$G$4))),IFERROR(M39-($B$38/20),"-"))</f>
-        <v>4.71428571428571</v>
+        <v>5.14285714285714</v>
       </c>
       <c r="O39" s="40" t="n">
         <f aca="false">IFERROR((IF(N39-($B$38/$G$4) &lt; 0,"-", N39-($B$38/$G$4))),IFERROR(N39-($B$38/20),"-"))</f>
-        <v>2.35714285714285</v>
+        <v>2.57142857142857</v>
       </c>
       <c r="P39" s="40" t="n">
         <f aca="false">IFERROR((IF(O39-($B$38/$G$4) &lt; 0,"-", O39-($B$38/$G$4))),IFERROR(O39-($B$38/20),"-"))</f>
@@ -3728,7 +3751,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{2C2B8A83-5A78-4EA0-8B1C-A4D4D0F5F04F}</x14:id>
+          <x14:id>{729D5B88-705E-4DE5-BECA-9455B17144D8}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -3746,7 +3769,7 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
       <x14:conditionalFormattings>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{2C2B8A83-5A78-4EA0-8B1C-A4D4D0F5F04F}">
+          <x14:cfRule type="dataBar" id="{729D5B88-705E-4DE5-BECA-9455B17144D8}">
             <x14:dataBar minLength="10" maxLength="90" axisPosition="automatic" gradient="false">
               <x14:cfvo type="num">
                 <xm:f>0</xm:f>
